--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,12 @@
     <sheet name="Sheet29" sheetId="29" r:id="rId27"/>
     <sheet name="Sheet27" sheetId="30" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="193">
   <si>
     <t>URL</t>
   </si>
@@ -654,17 +654,42 @@
   <si>
     <t>Automate17</t>
   </si>
+  <si>
+    <t>rahul11@avantis.info</t>
+  </si>
+  <si>
+    <t>Masters-Compliance Type</t>
+  </si>
+  <si>
+    <t>ComplianceType12</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>ComType</t>
+  </si>
+  <si>
+    <t>Act Group</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -926,61 +951,62 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1532,7 +1558,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1581,7 +1607,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1603,7 +1629,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1646,7 +1672,7 @@
       <c r="A5" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1733,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1746,7 +1772,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1754,7 +1780,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1762,7 +1788,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1847,7 +1873,7 @@
       <c r="A14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1913,15 +1939,15 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="40" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="41" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1929,12 +1955,12 @@
       <c r="A25" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="41" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -1942,7 +1968,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1979,7 +2005,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1987,7 +2013,7 @@
       <c r="A33" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2000,7 +2026,7 @@
       <c r="A35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2010,6 +2036,35 @@
       </c>
       <c r="B36" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2230,10 +2285,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2281,7 +2336,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2584,7 +2639,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2592,7 +2647,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2600,7 +2655,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2608,7 +2663,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2631,7 +2686,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2642,7 +2697,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2650,7 +2705,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2658,7 +2713,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2666,7 +2721,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2674,28 +2729,28 @@
       <c r="A5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2703,58 +2758,58 @@
       <c r="A9" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2762,15 +2817,15 @@
       <c r="A17" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2778,23 +2833,31 @@
       <c r="A19" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>45264</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" s="17"/>
+      <c r="A21" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="B22" s="17"/>
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2868,7 +2931,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2876,7 +2939,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2884,7 +2947,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2971,16 +3034,16 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -2998,23 +3061,23 @@
       <c r="A6" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3077,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3128,8 +3191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3177,7 +3240,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3226,10 +3289,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3281,8 +3344,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3291,9 +3359,10 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3302,7 +3371,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3358,7 +3427,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
